--- a/pred_ohlcv/54_21/2020-01-15 XEM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 XEM ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>-108643.81708467</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-109283.53308467</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>15854651.76979841</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>15854651.76979841</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>15854651.76979841</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>15854651.76979841</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>15854651.76979841</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>15854651.76979841</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>15851750.51219841</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>15832020.34869841</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>15850352.66039841</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>15850352.66039841</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>15849780.50939841</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>15853480.96489841</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>15909572.99979841</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>15910017.36839841</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>15909964.14649841</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>15904483.17099841</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>15898845.74173655</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>15898845.68353655</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>15896837.14623655</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>15896983.33044707</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>15884983.33044707</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>15887073.30644707</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>15877431.30644707</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>15812431.30644707</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>15853284.75244707</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>15854199.17960593</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-15 XEM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 XEM ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>-108643.81708467</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-109283.53308467</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>15854651.76979841</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>15854651.76979841</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>15854651.76979841</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>15854651.76979841</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>15854651.76979841</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>15854651.76979841</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>15854651.76979841</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>15854651.76979841</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>15903663.73489841</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>15903663.73489841</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>15910017.36839841</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>15909964.14649841</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>15904483.17099841</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>15898845.74173655</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>15898845.68353655</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>15896837.14623655</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>15884983.33044707</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>15887073.30644707</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>15854199.17960593</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
